--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,657 +453,1170 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B5" t="n">
         <v>33</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B8" t="n">
         <v>38</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>735</v>
+      <c r="C9" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B10" t="n">
         <v>84</v>
       </c>
-      <c r="C10" t="n">
-        <v>15</v>
+      <c r="C10" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B11" t="n">
         <v>95</v>
       </c>
-      <c r="C11" t="n">
-        <v>330</v>
+      <c r="C11" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B13" t="n">
         <v>57</v>
       </c>
-      <c r="C13" t="n">
-        <v>600</v>
+      <c r="C13" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B14" t="n">
         <v>83</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B15" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
-        <v>620</v>
+      <c r="C23" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B24" t="n">
         <v>47</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B25" t="n">
         <v>94</v>
       </c>
-      <c r="C25" t="n">
-        <v>30</v>
+      <c r="C25" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B26" t="n">
         <v>111</v>
       </c>
-      <c r="C26" t="n">
-        <v>340</v>
+      <c r="C26" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B27" t="n">
         <v>113</v>
       </c>
-      <c r="C27" t="n">
-        <v>390</v>
+      <c r="C27" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B28" t="n">
         <v>114</v>
       </c>
-      <c r="C28" t="n">
-        <v>270</v>
+      <c r="C28" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B29" t="n">
         <v>92</v>
       </c>
-      <c r="C29" t="n">
-        <v>490</v>
+      <c r="C29" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B30" t="n">
         <v>123</v>
       </c>
-      <c r="C30" t="n">
-        <v>490</v>
+      <c r="C30" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B31" t="n">
         <v>159</v>
       </c>
-      <c r="C31" t="n">
-        <v>450</v>
+      <c r="C31" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B32" t="n">
         <v>168</v>
       </c>
-      <c r="C32" t="n">
-        <v>1120</v>
+      <c r="C32" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B33" t="n">
         <v>210</v>
       </c>
-      <c r="C33" t="n">
-        <v>590</v>
+      <c r="C33" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B35" t="n">
         <v>158</v>
       </c>
-      <c r="C35" t="n">
-        <v>730</v>
+      <c r="C35" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B36" t="n">
         <v>416</v>
       </c>
-      <c r="C36" t="n">
-        <v>260</v>
+      <c r="C36" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B37" t="n">
         <v>259</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B38" t="n">
         <v>237</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B39" t="n">
         <v>98</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
-        <v>310</v>
+      <c r="C40" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B41" t="n">
         <v>11</v>
       </c>
-      <c r="C41" t="n">
-        <v>230</v>
+      <c r="C41" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B42" t="n">
         <v>166</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B43" t="n">
         <v>100</v>
       </c>
-      <c r="C43" t="n">
-        <v>310</v>
+      <c r="C43" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B44" t="n">
         <v>27</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B46" t="n">
         <v>15</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B47" t="n">
         <v>36</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B48" t="n">
         <v>49</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B49" t="n">
         <v>22</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B50" t="n">
         <v>9</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>45600</v>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="n">
         <v>45621</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>735</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-97.95918367346938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>330</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>81.81818181818181</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B6" t="n">
+        <v>620</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.333333333333344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-95.16129032258065</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B8" t="n">
+        <v>340</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1033.333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B9" t="n">
+        <v>390</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.70588235294117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B10" t="n">
+        <v>270</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-30.76923076923077</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B11" t="n">
+        <v>490</v>
+      </c>
+      <c r="C11" t="n">
+        <v>81.4814814814815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B12" t="n">
+        <v>490</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B13" t="n">
+        <v>450</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.163265306122447</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C14" t="n">
+        <v>148.8888888888889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B15" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-47.32142857142857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B16" t="n">
+        <v>730</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.72881355932204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B17" t="n">
+        <v>260</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-64.38356164383562</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B18" t="n">
+        <v>310</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19.23076923076923</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B19" t="n">
+        <v>230</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.80645161290322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B20" t="n">
+        <v>310</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34.78260869565217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8310</v>
+      </c>
+      <c r="B2" t="n">
+        <v>437.3684210526316</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>458.1578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,838 +453,656 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>84</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>95</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>83</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>94</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>111</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>113</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>114</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>92</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>123</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>159</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>168</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>210</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>590</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>158</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>416</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>259</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>237</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>98</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>11</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>166</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>100</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>15</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>36</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>49</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>22</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>9</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,10 +1144,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>735</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1337,199 +1155,243 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>-97.95918367346938</v>
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="C4" t="n">
-        <v>2100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>81.81818181818181</v>
+        <v>-97.36842105263158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>620</v>
+        <v>735</v>
       </c>
       <c r="C6" t="n">
-        <v>3.333333333333344</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>-95.16129032258065</v>
+        <v>-97.95918367346938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C8" t="n">
-        <v>1033.333333333333</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="C9" t="n">
-        <v>14.70588235294117</v>
+        <v>81.81818181818181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>620</v>
       </c>
       <c r="C10" t="n">
-        <v>-30.76923076923077</v>
+        <v>3.333333333333344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>490</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>81.4814814814815</v>
+        <v>-95.16129032258065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1033.333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.163265306122447</v>
+        <v>14.70588235294117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1120</v>
+        <v>270</v>
       </c>
       <c r="C14" t="n">
-        <v>148.8888888888889</v>
+        <v>-30.76923076923077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="C15" t="n">
-        <v>-47.32142857142857</v>
+        <v>81.4814814814815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>730</v>
+        <v>490</v>
       </c>
       <c r="C16" t="n">
-        <v>23.72881355932204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="C17" t="n">
-        <v>-64.38356164383562</v>
+        <v>-8.163265306122447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45509</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>310</v>
+        <v>1120</v>
       </c>
       <c r="C18" t="n">
-        <v>19.23076923076923</v>
+        <v>148.8888888888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45516</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>230</v>
+        <v>590</v>
       </c>
       <c r="C19" t="n">
-        <v>-25.80645161290322</v>
+        <v>-47.32142857142857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45530</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>730</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23.72881355932204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>260</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-64.38356164383562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>310</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
+        <v>19.23076923076923</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>230</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-25.80645161290322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>310</v>
+      </c>
+      <c r="C24" t="n">
         <v>34.78260869565217</v>
       </c>
     </row>
@@ -1576,16 +1438,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8310</v>
+        <v>8560</v>
       </c>
       <c r="B2" t="n">
-        <v>437.3684210526316</v>
+        <v>372.1739130434783</v>
       </c>
       <c r="C2" t="n">
         <v>1120</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>458.1578947368421</v>
+        <v>555.8498023715415</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23382,7 +23390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26121,6 +26129,17 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,14 @@
       </c>
       <c r="B61" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -23390,7 +23398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24710,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -24754,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124">
@@ -24776,7 +24784,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126">
@@ -24787,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
@@ -25447,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>105</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187">
@@ -25458,7 +25466,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188">
@@ -25491,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191">
@@ -25513,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -26140,6 +26148,17 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C250" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,14 @@
       </c>
       <c r="B62" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23398,7 +23406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26159,6 +26167,17 @@
         <v>2</v>
       </c>
       <c r="C250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CN76TH9S_sales_po_comparison.xlsx
@@ -946,7 +946,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -26175,7 +26175,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
